--- a/data/type7.xlsx
+++ b/data/type7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32000" windowHeight="13660"/>
+    <workbookView windowWidth="30240" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1207,7 +1207,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="6" outlineLevelCol="2"/>
@@ -1228,7 +1228,7 @@
     </row>
     <row r="2" ht="17" spans="1:3">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="3" ht="34" spans="1:3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="4" ht="17" spans="1:3">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1261,7 +1261,7 @@
     </row>
     <row r="5" ht="17" spans="1:3">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1272,7 +1272,7 @@
     </row>
     <row r="6" ht="17" spans="1:3">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1283,7 +1283,7 @@
     </row>
     <row r="7" ht="17" spans="1:3">
       <c r="A7" s="1">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
